--- a/참고자료/매입매출데이터-원본.xlsx
+++ b/참고자료/매입매출데이터-원본.xlsx
@@ -20102,7 +20102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
       <selection activeCell="N217" sqref="N217"/>
     </sheetView>
   </sheetViews>
@@ -20167,7 +20167,7 @@
         <v>497</v>
       </c>
       <c r="H2" s="6">
-        <f>G2*F2</f>
+        <f t="shared" ref="H2:H65" si="0">G2*F2</f>
         <v>32802</v>
       </c>
     </row>
@@ -20194,7 +20194,7 @@
         <v>245</v>
       </c>
       <c r="H3" s="6">
-        <f>G3*F3</f>
+        <f t="shared" si="0"/>
         <v>21805</v>
       </c>
     </row>
@@ -20221,7 +20221,7 @@
         <v>295</v>
       </c>
       <c r="H4" s="6">
-        <f>G4*F4</f>
+        <f t="shared" si="0"/>
         <v>27730</v>
       </c>
     </row>
@@ -20248,7 +20248,7 @@
         <v>2745</v>
       </c>
       <c r="H5" s="6">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>238815</v>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -20302,7 +20302,7 @@
         <v>622</v>
       </c>
       <c r="H7" s="6">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>41052</v>
       </c>
     </row>
@@ -20329,7 +20329,7 @@
         <v>1885</v>
       </c>
       <c r="H8" s="6">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>188500</v>
       </c>
     </row>
@@ -20356,7 +20356,7 @@
         <v>491</v>
       </c>
       <c r="H9" s="6">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>41244</v>
       </c>
     </row>
@@ -20383,7 +20383,7 @@
         <v>591</v>
       </c>
       <c r="H10" s="6">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>46098</v>
       </c>
     </row>
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -20437,7 +20437,7 @@
         <v>8240</v>
       </c>
       <c r="H12" s="6">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>601520</v>
       </c>
     </row>
@@ -20464,7 +20464,7 @@
         <v>1844</v>
       </c>
       <c r="H13" s="6">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>164116</v>
       </c>
     </row>
@@ -20491,7 +20491,7 @@
         <v>409</v>
       </c>
       <c r="H14" s="6">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
         <v>2196</v>
       </c>
       <c r="H15" s="6">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>171288</v>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
         <v>655</v>
       </c>
       <c r="H16" s="6">
-        <f>G16*F16</f>
+        <f t="shared" si="0"/>
         <v>44540</v>
       </c>
     </row>
@@ -20572,7 +20572,7 @@
         <v>311</v>
       </c>
       <c r="H17" s="6">
-        <f>G17*F17</f>
+        <f t="shared" si="0"/>
         <v>24569</v>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
         <v>436</v>
       </c>
       <c r="H18" s="6">
-        <f>G18*F18</f>
+        <f t="shared" si="0"/>
         <v>27904</v>
       </c>
     </row>
@@ -20626,7 +20626,7 @@
         <v>647</v>
       </c>
       <c r="H19" s="6">
-        <f>G19*F19</f>
+        <f t="shared" si="0"/>
         <v>38820</v>
       </c>
     </row>
@@ -20653,7 +20653,7 @@
         <v>2065</v>
       </c>
       <c r="H20" s="6">
-        <f>G20*F20</f>
+        <f t="shared" si="0"/>
         <v>115640</v>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
         <v>887</v>
       </c>
       <c r="H21" s="6">
-        <f>G21*F21</f>
+        <f t="shared" si="0"/>
         <v>78056</v>
       </c>
     </row>
@@ -20707,7 +20707,7 @@
         <v>245</v>
       </c>
       <c r="H22" s="6">
-        <f>G22*F22</f>
+        <f t="shared" si="0"/>
         <v>12250</v>
       </c>
     </row>
@@ -20734,7 +20734,7 @@
         <v>1844</v>
       </c>
       <c r="H23" s="6">
-        <f>G23*F23</f>
+        <f t="shared" si="0"/>
         <v>141988</v>
       </c>
     </row>
@@ -20761,7 +20761,7 @@
         <v>286</v>
       </c>
       <c r="H24" s="6">
-        <f>G24*F24</f>
+        <f t="shared" si="0"/>
         <v>15444</v>
       </c>
     </row>
@@ -20788,7 +20788,7 @@
         <v>327</v>
       </c>
       <c r="H25" s="6">
-        <f>G25*F25</f>
+        <f t="shared" si="0"/>
         <v>18966</v>
       </c>
     </row>
@@ -20815,7 +20815,7 @@
         <v>436</v>
       </c>
       <c r="H26" s="6">
-        <f>G26*F26</f>
+        <f t="shared" si="0"/>
         <v>34008</v>
       </c>
     </row>
@@ -20842,7 +20842,7 @@
         <v>2049</v>
       </c>
       <c r="H27" s="6">
-        <f>G27*F27</f>
+        <f t="shared" si="0"/>
         <v>147528</v>
       </c>
     </row>
@@ -20869,7 +20869,7 @@
         <v>614</v>
       </c>
       <c r="H28" s="6">
-        <f>G28*F28</f>
+        <f t="shared" si="0"/>
         <v>59558</v>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="6">
-        <f>G29*F29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
         <v>245</v>
       </c>
       <c r="H30" s="6">
-        <f>G30*F30</f>
+        <f t="shared" si="0"/>
         <v>24500</v>
       </c>
     </row>
@@ -20950,7 +20950,7 @@
         <v>655</v>
       </c>
       <c r="H31" s="6">
-        <f>G31*F31</f>
+        <f t="shared" si="0"/>
         <v>56985</v>
       </c>
     </row>
@@ -20977,7 +20977,7 @@
         <v>300</v>
       </c>
       <c r="H32" s="6">
-        <f>G32*F32</f>
+        <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
@@ -21004,7 +21004,7 @@
         <v>409</v>
       </c>
       <c r="H33" s="6">
-        <f>G33*F33</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -21031,7 +21031,7 @@
         <v>1311</v>
       </c>
       <c r="H34" s="6">
-        <f>G34*F34</f>
+        <f t="shared" si="0"/>
         <v>106191</v>
       </c>
     </row>
@@ -21058,7 +21058,7 @@
         <v>655</v>
       </c>
       <c r="H35" s="6">
-        <f>G35*F35</f>
+        <f t="shared" si="0"/>
         <v>60915</v>
       </c>
     </row>
@@ -21085,7 +21085,7 @@
         <v>384</v>
       </c>
       <c r="H36" s="6">
-        <f>G36*F36</f>
+        <f t="shared" si="0"/>
         <v>29952</v>
       </c>
     </row>
@@ -21112,7 +21112,7 @@
         <v>1647</v>
       </c>
       <c r="H37" s="6">
-        <f>G37*F37</f>
+        <f t="shared" si="0"/>
         <v>116937</v>
       </c>
     </row>
@@ -21139,7 +21139,7 @@
         <v>327</v>
       </c>
       <c r="H38" s="6">
-        <f>G38*F38</f>
+        <f t="shared" si="0"/>
         <v>17658</v>
       </c>
     </row>
@@ -21166,7 +21166,7 @@
         <v>655</v>
       </c>
       <c r="H39" s="6">
-        <f>G39*F39</f>
+        <f t="shared" si="0"/>
         <v>65500</v>
       </c>
     </row>
@@ -21193,7 +21193,7 @@
         <v>2745</v>
       </c>
       <c r="H40" s="6">
-        <f>G40*F40</f>
+        <f t="shared" si="0"/>
         <v>241560</v>
       </c>
     </row>
@@ -21220,7 +21220,7 @@
         <v>491</v>
       </c>
       <c r="H41" s="6">
-        <f>G41*F41</f>
+        <f t="shared" si="0"/>
         <v>34861</v>
       </c>
     </row>
@@ -21247,7 +21247,7 @@
         <v>311</v>
       </c>
       <c r="H42" s="6">
-        <f>G42*F42</f>
+        <f t="shared" si="0"/>
         <v>21459</v>
       </c>
     </row>
@@ -21274,7 +21274,7 @@
         <v>2049</v>
       </c>
       <c r="H43" s="6">
-        <f>G43*F43</f>
+        <f t="shared" si="0"/>
         <v>180312</v>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
         <v>327</v>
       </c>
       <c r="H44" s="6">
-        <f>G44*F44</f>
+        <f t="shared" si="0"/>
         <v>22563</v>
       </c>
     </row>
@@ -21328,7 +21328,7 @@
         <v>655</v>
       </c>
       <c r="H45" s="6">
-        <f>G45*F45</f>
+        <f t="shared" si="0"/>
         <v>36025</v>
       </c>
     </row>
@@ -21355,7 +21355,7 @@
         <v>887</v>
       </c>
       <c r="H46" s="6">
-        <f>G46*F46</f>
+        <f t="shared" si="0"/>
         <v>79830</v>
       </c>
     </row>
@@ -21382,7 +21382,7 @@
         <v>650</v>
       </c>
       <c r="H47" s="6">
-        <f>G47*F47</f>
+        <f t="shared" si="0"/>
         <v>53300</v>
       </c>
     </row>
@@ -21409,7 +21409,7 @@
         <v>1844</v>
       </c>
       <c r="H48" s="6">
-        <f>G48*F48</f>
+        <f t="shared" si="0"/>
         <v>154896</v>
       </c>
     </row>
@@ -21436,7 +21436,7 @@
         <v>655</v>
       </c>
       <c r="H49" s="6">
-        <f>G49*F49</f>
+        <f t="shared" si="0"/>
         <v>62225</v>
       </c>
     </row>
@@ -21463,7 +21463,7 @@
         <v>573</v>
       </c>
       <c r="H50" s="6">
-        <f>G50*F50</f>
+        <f t="shared" si="0"/>
         <v>50997</v>
       </c>
     </row>
@@ -21490,7 +21490,7 @@
         <v>7377</v>
       </c>
       <c r="H51" s="6">
-        <f>G51*F51</f>
+        <f t="shared" si="0"/>
         <v>663930</v>
       </c>
     </row>
@@ -21517,7 +21517,7 @@
         <v>384</v>
       </c>
       <c r="H52" s="6">
-        <f>G52*F52</f>
+        <f t="shared" si="0"/>
         <v>29184</v>
       </c>
     </row>
@@ -21544,7 +21544,7 @@
         <v>204</v>
       </c>
       <c r="H53" s="6">
-        <f>G53*F53</f>
+        <f t="shared" si="0"/>
         <v>20400</v>
       </c>
     </row>
@@ -21571,7 +21571,7 @@
         <v>5778</v>
       </c>
       <c r="H54" s="6">
-        <f>G54*F54</f>
+        <f t="shared" si="0"/>
         <v>525798</v>
       </c>
     </row>
@@ -21598,7 +21598,7 @@
         <v>491</v>
       </c>
       <c r="H55" s="6">
-        <f>G55*F55</f>
+        <f t="shared" si="0"/>
         <v>43699</v>
       </c>
     </row>
@@ -21625,7 +21625,7 @@
         <v>1803</v>
       </c>
       <c r="H56" s="6">
-        <f>G56*F56</f>
+        <f t="shared" si="0"/>
         <v>97362</v>
       </c>
     </row>
@@ -21652,7 +21652,7 @@
         <v>901</v>
       </c>
       <c r="H57" s="6">
-        <f>G57*F57</f>
+        <f t="shared" si="0"/>
         <v>65773</v>
       </c>
     </row>
@@ -21679,7 +21679,7 @@
         <v>311</v>
       </c>
       <c r="H58" s="6">
-        <f>G58*F58</f>
+        <f t="shared" si="0"/>
         <v>22703</v>
       </c>
     </row>
@@ -21706,7 +21706,7 @@
         <v>819</v>
       </c>
       <c r="H59" s="6">
-        <f>G59*F59</f>
+        <f t="shared" si="0"/>
         <v>40950</v>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
         <v>976</v>
       </c>
       <c r="H60" s="6">
-        <f>G60*F60</f>
+        <f t="shared" si="0"/>
         <v>53680</v>
       </c>
     </row>
@@ -21760,7 +21760,7 @@
         <v>286</v>
       </c>
       <c r="H61" s="6">
-        <f>G61*F61</f>
+        <f t="shared" si="0"/>
         <v>23166</v>
       </c>
     </row>
@@ -21787,7 +21787,7 @@
         <v>2622</v>
       </c>
       <c r="H62" s="6">
-        <f>G62*F62</f>
+        <f t="shared" si="0"/>
         <v>167808</v>
       </c>
     </row>
@@ -21814,7 +21814,7 @@
         <v>983</v>
       </c>
       <c r="H63" s="6">
-        <f>G63*F63</f>
+        <f t="shared" si="0"/>
         <v>96334</v>
       </c>
     </row>
@@ -21841,7 +21841,7 @@
         <v>2407</v>
       </c>
       <c r="H64" s="6">
-        <f>G64*F64</f>
+        <f t="shared" si="0"/>
         <v>149234</v>
       </c>
     </row>
@@ -21868,7 +21868,7 @@
         <v>409</v>
       </c>
       <c r="H65" s="6">
-        <f>G65*F65</f>
+        <f t="shared" si="0"/>
         <v>24131</v>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
         <v>586</v>
       </c>
       <c r="H66" s="6">
-        <f>G66*F66</f>
+        <f t="shared" ref="H66:H129" si="1">G66*F66</f>
         <v>54498</v>
       </c>
     </row>
@@ -21922,7 +21922,7 @@
         <v>655</v>
       </c>
       <c r="H67" s="6">
-        <f>G67*F67</f>
+        <f t="shared" si="1"/>
         <v>47160</v>
       </c>
     </row>
@@ -21949,7 +21949,7 @@
         <v>344</v>
       </c>
       <c r="H68" s="6">
-        <f>G68*F68</f>
+        <f t="shared" si="1"/>
         <v>28208</v>
       </c>
     </row>
@@ -21976,7 +21976,7 @@
         <v>1844</v>
       </c>
       <c r="H69" s="6">
-        <f>G69*F69</f>
+        <f t="shared" si="1"/>
         <v>127236</v>
       </c>
     </row>
@@ -22003,7 +22003,7 @@
         <v>286</v>
       </c>
       <c r="H70" s="6">
-        <f>G70*F70</f>
+        <f t="shared" si="1"/>
         <v>23738</v>
       </c>
     </row>
@@ -22030,7 +22030,7 @@
         <v>655</v>
       </c>
       <c r="H71" s="6">
-        <f>G71*F71</f>
+        <f t="shared" si="1"/>
         <v>52400</v>
       </c>
     </row>
@@ -22057,7 +22057,7 @@
         <v>245</v>
       </c>
       <c r="H72" s="6">
-        <f>G72*F72</f>
+        <f t="shared" si="1"/>
         <v>20825</v>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
         <v>311</v>
       </c>
       <c r="H73" s="6">
-        <f>G73*F73</f>
+        <f t="shared" si="1"/>
         <v>30789</v>
       </c>
     </row>
@@ -22111,7 +22111,7 @@
         <v>983</v>
       </c>
       <c r="H74" s="6">
-        <f>G74*F74</f>
+        <f t="shared" si="1"/>
         <v>95351</v>
       </c>
     </row>
@@ -22138,7 +22138,7 @@
         <v>901</v>
       </c>
       <c r="H75" s="6">
-        <f>G75*F75</f>
+        <f t="shared" si="1"/>
         <v>47753</v>
       </c>
     </row>
@@ -22165,7 +22165,7 @@
         <v>896</v>
       </c>
       <c r="H76" s="6">
-        <f>G76*F76</f>
+        <f t="shared" si="1"/>
         <v>89600</v>
       </c>
     </row>
@@ -22192,7 +22192,7 @@
         <v>1775</v>
       </c>
       <c r="H77" s="6">
-        <f>G77*F77</f>
+        <f t="shared" si="1"/>
         <v>136675</v>
       </c>
     </row>
@@ -22219,7 +22219,7 @@
         <v>1311</v>
       </c>
       <c r="H78" s="6">
-        <f>G78*F78</f>
+        <f t="shared" si="1"/>
         <v>115368</v>
       </c>
     </row>
@@ -22246,7 +22246,7 @@
         <v>1475</v>
       </c>
       <c r="H79" s="6">
-        <f>G79*F79</f>
+        <f t="shared" si="1"/>
         <v>116525</v>
       </c>
     </row>
@@ -22273,7 +22273,7 @@
         <v>1121</v>
       </c>
       <c r="H80" s="6">
-        <f>G80*F80</f>
+        <f t="shared" si="1"/>
         <v>85196</v>
       </c>
     </row>
@@ -22300,7 +22300,7 @@
         <v>655</v>
       </c>
       <c r="H81" s="6">
-        <f>G81*F81</f>
+        <f t="shared" si="1"/>
         <v>32750</v>
       </c>
     </row>
@@ -22327,7 +22327,7 @@
         <v>2065</v>
       </c>
       <c r="H82" s="6">
-        <f>G82*F82</f>
+        <f t="shared" si="1"/>
         <v>125965</v>
       </c>
     </row>
@@ -22354,7 +22354,7 @@
         <v>2196</v>
       </c>
       <c r="H83" s="6">
-        <f>G83*F83</f>
+        <f t="shared" si="1"/>
         <v>184464</v>
       </c>
     </row>
@@ -22381,7 +22381,7 @@
         <v>573</v>
       </c>
       <c r="H84" s="6">
-        <f>G84*F84</f>
+        <f t="shared" si="1"/>
         <v>41256</v>
       </c>
     </row>
@@ -22408,7 +22408,7 @@
         <v>386</v>
       </c>
       <c r="H85" s="6">
-        <f>G85*F85</f>
+        <f t="shared" si="1"/>
         <v>28950</v>
       </c>
     </row>
@@ -22435,7 +22435,7 @@
         <v>4918</v>
       </c>
       <c r="H86" s="6">
-        <f>G86*F86</f>
+        <f t="shared" si="1"/>
         <v>457374</v>
       </c>
     </row>
@@ -22462,7 +22462,7 @@
         <v>491</v>
       </c>
       <c r="H87" s="6">
-        <f>G87*F87</f>
+        <f t="shared" si="1"/>
         <v>48118</v>
       </c>
     </row>
@@ -22489,7 +22489,7 @@
         <v>1844</v>
       </c>
       <c r="H88" s="6">
-        <f>G88*F88</f>
+        <f t="shared" si="1"/>
         <v>182556</v>
       </c>
     </row>
@@ -22516,7 +22516,7 @@
         <v>655</v>
       </c>
       <c r="H89" s="6">
-        <f>G89*F89</f>
+        <f t="shared" si="1"/>
         <v>37335</v>
       </c>
     </row>
@@ -22543,7 +22543,7 @@
         <v>1639</v>
       </c>
       <c r="H90" s="6">
-        <f>G90*F90</f>
+        <f t="shared" si="1"/>
         <v>132759</v>
       </c>
     </row>
@@ -22570,7 +22570,7 @@
         <v>655</v>
       </c>
       <c r="H91" s="6">
-        <f>G91*F91</f>
+        <f t="shared" si="1"/>
         <v>40610</v>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
         <v>1704</v>
       </c>
       <c r="H92" s="6">
-        <f>G92*F92</f>
+        <f t="shared" si="1"/>
         <v>127800</v>
       </c>
     </row>
@@ -22624,7 +22624,7 @@
         <v>860</v>
       </c>
       <c r="H93" s="6">
-        <f>G93*F93</f>
+        <f t="shared" si="1"/>
         <v>43860</v>
       </c>
     </row>
@@ -22651,7 +22651,7 @@
         <v>409</v>
       </c>
       <c r="H94" s="6">
-        <f>G94*F94</f>
+        <f t="shared" si="1"/>
         <v>36401</v>
       </c>
     </row>
@@ -22678,7 +22678,7 @@
         <v>1844</v>
       </c>
       <c r="H95" s="6">
-        <f>G95*F95</f>
+        <f t="shared" si="1"/>
         <v>106952</v>
       </c>
     </row>
@@ -22705,7 +22705,7 @@
         <v>327</v>
       </c>
       <c r="H96" s="6">
-        <f>G96*F96</f>
+        <f t="shared" si="1"/>
         <v>20274</v>
       </c>
     </row>
@@ -22732,7 +22732,7 @@
         <v>368</v>
       </c>
       <c r="H97" s="6">
-        <f>G97*F97</f>
+        <f t="shared" si="1"/>
         <v>30176</v>
       </c>
     </row>
@@ -22759,7 +22759,7 @@
         <v>1844</v>
       </c>
       <c r="H98" s="6">
-        <f>G98*F98</f>
+        <f t="shared" si="1"/>
         <v>119860</v>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
         <v>614</v>
       </c>
       <c r="H99" s="6">
-        <f>G99*F99</f>
+        <f t="shared" si="1"/>
         <v>39910</v>
       </c>
     </row>
@@ -22813,7 +22813,7 @@
         <v>286</v>
       </c>
       <c r="H100" s="6">
-        <f>G100*F100</f>
+        <f t="shared" si="1"/>
         <v>27742</v>
       </c>
     </row>
@@ -22840,7 +22840,7 @@
         <v>737</v>
       </c>
       <c r="H101" s="6">
-        <f>G101*F101</f>
+        <f t="shared" si="1"/>
         <v>62645</v>
       </c>
     </row>
@@ -22867,7 +22867,7 @@
         <v>295</v>
       </c>
       <c r="H102" s="6">
-        <f>G102*F102</f>
+        <f t="shared" si="1"/>
         <v>22420</v>
       </c>
     </row>
@@ -22894,7 +22894,7 @@
         <v>411</v>
       </c>
       <c r="H103" s="6">
-        <f>G103*F103</f>
+        <f t="shared" si="1"/>
         <v>28770</v>
       </c>
     </row>
@@ -22921,7 +22921,7 @@
         <v>1803</v>
       </c>
       <c r="H104" s="6">
-        <f>G104*F104</f>
+        <f t="shared" si="1"/>
         <v>104574</v>
       </c>
     </row>
@@ -22948,7 +22948,7 @@
         <v>1647</v>
       </c>
       <c r="H105" s="6">
-        <f>G105*F105</f>
+        <f t="shared" si="1"/>
         <v>121878</v>
       </c>
     </row>
@@ -22975,7 +22975,7 @@
         <v>901</v>
       </c>
       <c r="H106" s="6">
-        <f>G106*F106</f>
+        <f t="shared" si="1"/>
         <v>76585</v>
       </c>
     </row>
@@ -23002,7 +23002,7 @@
         <v>1172</v>
       </c>
       <c r="H107" s="6">
-        <f>G107*F107</f>
+        <f t="shared" si="1"/>
         <v>89072</v>
       </c>
     </row>
@@ -23029,7 +23029,7 @@
         <v>322</v>
       </c>
       <c r="H108" s="6">
-        <f>G108*F108</f>
+        <f t="shared" si="1"/>
         <v>22540</v>
       </c>
     </row>
@@ -23056,7 +23056,7 @@
         <v>737</v>
       </c>
       <c r="H109" s="6">
-        <f>G109*F109</f>
+        <f t="shared" si="1"/>
         <v>48642</v>
       </c>
     </row>
@@ -23083,7 +23083,7 @@
         <v>622</v>
       </c>
       <c r="H110" s="6">
-        <f>G110*F110</f>
+        <f t="shared" si="1"/>
         <v>41052</v>
       </c>
     </row>
@@ -23110,7 +23110,7 @@
         <v>491</v>
       </c>
       <c r="H111" s="6">
-        <f>G111*F111</f>
+        <f t="shared" si="1"/>
         <v>32897</v>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
         <v>709</v>
       </c>
       <c r="H112" s="6">
-        <f>G112*F112</f>
+        <f t="shared" si="1"/>
         <v>58138</v>
       </c>
     </row>
@@ -23164,7 +23164,7 @@
         <v>622</v>
       </c>
       <c r="H113" s="6">
-        <f>G113*F113</f>
+        <f t="shared" si="1"/>
         <v>53492</v>
       </c>
     </row>
@@ -23191,7 +23191,7 @@
         <v>512</v>
       </c>
       <c r="H114" s="6">
-        <f>G114*F114</f>
+        <f t="shared" si="1"/>
         <v>37376</v>
       </c>
     </row>
@@ -23218,7 +23218,7 @@
         <v>245</v>
       </c>
       <c r="H115" s="6">
-        <f>G115*F115</f>
+        <f t="shared" si="1"/>
         <v>24010</v>
       </c>
     </row>
@@ -23245,7 +23245,7 @@
         <v>549</v>
       </c>
       <c r="H116" s="6">
-        <f>G116*F116</f>
+        <f t="shared" si="1"/>
         <v>28548</v>
       </c>
     </row>
@@ -23272,7 +23272,7 @@
         <v>901</v>
       </c>
       <c r="H117" s="6">
-        <f>G117*F117</f>
+        <f t="shared" si="1"/>
         <v>54060</v>
       </c>
     </row>
@@ -23299,7 +23299,7 @@
         <v>651</v>
       </c>
       <c r="H118" s="6">
-        <f>G118*F118</f>
+        <f t="shared" si="1"/>
         <v>48174</v>
       </c>
     </row>
@@ -23326,7 +23326,7 @@
         <v>655</v>
       </c>
       <c r="H119" s="6">
-        <f>G119*F119</f>
+        <f t="shared" si="1"/>
         <v>62880</v>
       </c>
     </row>
@@ -23353,7 +23353,7 @@
         <v>7377</v>
       </c>
       <c r="H120" s="6">
-        <f>G120*F120</f>
+        <f t="shared" si="1"/>
         <v>413112</v>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
         <v>573</v>
       </c>
       <c r="H121" s="6">
-        <f>G121*F121</f>
+        <f t="shared" si="1"/>
         <v>30942</v>
       </c>
     </row>
@@ -23407,7 +23407,7 @@
         <v>368</v>
       </c>
       <c r="H122" s="6">
-        <f>G122*F122</f>
+        <f t="shared" si="1"/>
         <v>26128</v>
       </c>
     </row>
@@ -23434,7 +23434,7 @@
         <v>491</v>
       </c>
       <c r="H123" s="6">
-        <f>G123*F123</f>
+        <f t="shared" si="1"/>
         <v>31915</v>
       </c>
     </row>
@@ -23461,7 +23461,7 @@
         <v>409</v>
       </c>
       <c r="H124" s="6">
-        <f>G124*F124</f>
+        <f t="shared" si="1"/>
         <v>31902</v>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
         <v>352</v>
       </c>
       <c r="H125" s="6">
-        <f>G125*F125</f>
+        <f t="shared" si="1"/>
         <v>20064</v>
       </c>
     </row>
@@ -23515,7 +23515,7 @@
         <v>386</v>
       </c>
       <c r="H126" s="6">
-        <f>G126*F126</f>
+        <f t="shared" si="1"/>
         <v>26248</v>
       </c>
     </row>
@@ -23542,7 +23542,7 @@
         <v>591</v>
       </c>
       <c r="H127" s="6">
-        <f>G127*F127</f>
+        <f t="shared" si="1"/>
         <v>34278</v>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
         <v>622</v>
       </c>
       <c r="H128" s="6">
-        <f>G128*F128</f>
+        <f t="shared" si="1"/>
         <v>55358</v>
       </c>
     </row>
@@ -23596,7 +23596,7 @@
         <v>1844</v>
       </c>
       <c r="H129" s="6">
-        <f>G129*F129</f>
+        <f t="shared" si="1"/>
         <v>114328</v>
       </c>
     </row>
@@ -23623,7 +23623,7 @@
         <v>180</v>
       </c>
       <c r="H130" s="6">
-        <f>G130*F130</f>
+        <f t="shared" ref="H130:H193" si="2">G130*F130</f>
         <v>15660</v>
       </c>
     </row>
@@ -23650,7 +23650,7 @@
         <v>413</v>
       </c>
       <c r="H131" s="6">
-        <f>G131*F131</f>
+        <f t="shared" si="2"/>
         <v>30975</v>
       </c>
     </row>
@@ -23677,7 +23677,7 @@
         <v>622</v>
       </c>
       <c r="H132" s="6">
-        <f>G132*F132</f>
+        <f t="shared" si="2"/>
         <v>36698</v>
       </c>
     </row>
@@ -23704,7 +23704,7 @@
         <v>1549</v>
       </c>
       <c r="H133" s="6">
-        <f>G133*F133</f>
+        <f t="shared" si="2"/>
         <v>83646</v>
       </c>
     </row>
@@ -23731,7 +23731,7 @@
         <v>2704</v>
       </c>
       <c r="H134" s="6">
-        <f>G134*F134</f>
+        <f t="shared" si="2"/>
         <v>181168</v>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
         <v>614</v>
       </c>
       <c r="H135" s="6">
-        <f>G135*F135</f>
+        <f t="shared" si="2"/>
         <v>37454</v>
       </c>
     </row>
@@ -23785,7 +23785,7 @@
         <v>1885</v>
       </c>
       <c r="H136" s="6">
-        <f>G136*F136</f>
+        <f t="shared" si="2"/>
         <v>137605</v>
       </c>
     </row>
@@ -23812,7 +23812,7 @@
         <v>1758</v>
       </c>
       <c r="H137" s="6">
-        <f>G137*F137</f>
+        <f t="shared" si="2"/>
         <v>167010</v>
       </c>
     </row>
@@ -23839,7 +23839,7 @@
         <v>272</v>
       </c>
       <c r="H138" s="6">
-        <f>G138*F138</f>
+        <f t="shared" si="2"/>
         <v>14144</v>
       </c>
     </row>
@@ -23866,7 +23866,7 @@
         <v>413</v>
       </c>
       <c r="H139" s="6">
-        <f>G139*F139</f>
+        <f t="shared" si="2"/>
         <v>39235</v>
       </c>
     </row>
@@ -23893,7 +23893,7 @@
         <v>450</v>
       </c>
       <c r="H140" s="6">
-        <f>G140*F140</f>
+        <f t="shared" si="2"/>
         <v>41850</v>
       </c>
     </row>
@@ -23920,7 +23920,7 @@
         <v>341</v>
       </c>
       <c r="H141" s="6">
-        <f>G141*F141</f>
+        <f t="shared" si="2"/>
         <v>26939</v>
       </c>
     </row>
@@ -23947,7 +23947,7 @@
         <v>286</v>
       </c>
       <c r="H142" s="6">
-        <f>G142*F142</f>
+        <f t="shared" si="2"/>
         <v>23452</v>
       </c>
     </row>
@@ -23974,7 +23974,7 @@
         <v>450</v>
       </c>
       <c r="H143" s="6">
-        <f>G143*F143</f>
+        <f t="shared" si="2"/>
         <v>35550</v>
       </c>
     </row>
@@ -24001,7 +24001,7 @@
         <v>1180</v>
       </c>
       <c r="H144" s="6">
-        <f>G144*F144</f>
+        <f t="shared" si="2"/>
         <v>102660</v>
       </c>
     </row>
@@ -24028,7 +24028,7 @@
         <v>1475</v>
       </c>
       <c r="H145" s="6">
-        <f>G145*F145</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -24055,7 +24055,7 @@
         <v>426</v>
       </c>
       <c r="H146" s="6">
-        <f>G146*F146</f>
+        <f t="shared" si="2"/>
         <v>34932</v>
       </c>
     </row>
@@ -24082,7 +24082,7 @@
         <v>614</v>
       </c>
       <c r="H147" s="6">
-        <f>G147*F147</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
         <v>9016</v>
       </c>
       <c r="H148" s="6">
-        <f>G148*F148</f>
+        <f t="shared" si="2"/>
         <v>892584</v>
       </c>
     </row>
@@ -24136,7 +24136,7 @@
         <v>491</v>
       </c>
       <c r="H149" s="6">
-        <f>G149*F149</f>
+        <f t="shared" si="2"/>
         <v>44190</v>
       </c>
     </row>
@@ -24163,7 +24163,7 @@
         <v>622</v>
       </c>
       <c r="H150" s="6">
-        <f>G150*F150</f>
+        <f t="shared" si="2"/>
         <v>53492</v>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
         <v>327</v>
       </c>
       <c r="H151" s="6">
-        <f>G151*F151</f>
+        <f t="shared" si="2"/>
         <v>29430</v>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
         <v>532</v>
       </c>
       <c r="H152" s="6">
-        <f>G152*F152</f>
+        <f t="shared" si="2"/>
         <v>52668</v>
       </c>
     </row>
@@ -24244,7 +24244,7 @@
         <v>327</v>
       </c>
       <c r="H153" s="6">
-        <f>G153*F153</f>
+        <f t="shared" si="2"/>
         <v>20601</v>
       </c>
     </row>
@@ -24271,7 +24271,7 @@
         <v>976</v>
       </c>
       <c r="H154" s="6">
-        <f>G154*F154</f>
+        <f t="shared" si="2"/>
         <v>78080</v>
       </c>
     </row>
@@ -24298,7 +24298,7 @@
         <v>1696</v>
       </c>
       <c r="H155" s="6">
-        <f>G155*F155</f>
+        <f t="shared" si="2"/>
         <v>117024</v>
       </c>
     </row>
@@ -24325,7 +24325,7 @@
         <v>1844</v>
       </c>
       <c r="H156" s="6">
-        <f>G156*F156</f>
+        <f t="shared" si="2"/>
         <v>158584</v>
       </c>
     </row>
@@ -24352,7 +24352,7 @@
         <v>1967</v>
       </c>
       <c r="H157" s="6">
-        <f>G157*F157</f>
+        <f t="shared" si="2"/>
         <v>121954</v>
       </c>
     </row>
@@ -24379,7 +24379,7 @@
         <v>1844</v>
       </c>
       <c r="H158" s="6">
-        <f>G158*F158</f>
+        <f t="shared" si="2"/>
         <v>171492</v>
       </c>
     </row>
@@ -24406,7 +24406,7 @@
         <v>1844</v>
       </c>
       <c r="H159" s="6">
-        <f>G159*F159</f>
+        <f t="shared" si="2"/>
         <v>130924</v>
       </c>
     </row>
@@ -24433,7 +24433,7 @@
         <v>819</v>
       </c>
       <c r="H160" s="6">
-        <f>G160*F160</f>
+        <f t="shared" si="2"/>
         <v>53235</v>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
         <v>221</v>
       </c>
       <c r="H161" s="6">
-        <f>G161*F161</f>
+        <f t="shared" si="2"/>
         <v>15912</v>
       </c>
     </row>
@@ -24487,7 +24487,7 @@
         <v>386</v>
       </c>
       <c r="H162" s="6">
-        <f>G162*F162</f>
+        <f t="shared" si="2"/>
         <v>36670</v>
       </c>
     </row>
@@ -24514,7 +24514,7 @@
         <v>586</v>
       </c>
       <c r="H163" s="6">
-        <f>G163*F163</f>
+        <f t="shared" si="2"/>
         <v>39262</v>
       </c>
     </row>
@@ -24541,7 +24541,7 @@
         <v>436</v>
       </c>
       <c r="H164" s="6">
-        <f>G164*F164</f>
+        <f t="shared" si="2"/>
         <v>39676</v>
       </c>
     </row>
@@ -24568,7 +24568,7 @@
         <v>341</v>
       </c>
       <c r="H165" s="6">
-        <f>G165*F165</f>
+        <f t="shared" si="2"/>
         <v>30349</v>
       </c>
     </row>
@@ -24595,7 +24595,7 @@
         <v>413</v>
       </c>
       <c r="H166" s="6">
-        <f>G166*F166</f>
+        <f t="shared" si="2"/>
         <v>32627</v>
       </c>
     </row>
@@ -24622,7 +24622,7 @@
         <v>655</v>
       </c>
       <c r="H167" s="6">
-        <f>G167*F167</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -24649,7 +24649,7 @@
         <v>1844</v>
       </c>
       <c r="H168" s="6">
-        <f>G168*F168</f>
+        <f t="shared" si="2"/>
         <v>138300</v>
       </c>
     </row>
@@ -24676,7 +24676,7 @@
         <v>655</v>
       </c>
       <c r="H169" s="6">
-        <f>G169*F169</f>
+        <f t="shared" si="2"/>
         <v>41265</v>
       </c>
     </row>
@@ -24703,7 +24703,7 @@
         <v>386</v>
       </c>
       <c r="H170" s="6">
-        <f>G170*F170</f>
+        <f t="shared" si="2"/>
         <v>37828</v>
       </c>
     </row>
@@ -24730,7 +24730,7 @@
         <v>1147</v>
       </c>
       <c r="H171" s="6">
-        <f>G171*F171</f>
+        <f t="shared" si="2"/>
         <v>88319</v>
       </c>
     </row>
@@ -24757,7 +24757,7 @@
         <v>1844</v>
       </c>
       <c r="H172" s="6">
-        <f>G172*F172</f>
+        <f t="shared" si="2"/>
         <v>132768</v>
       </c>
     </row>
@@ -24784,7 +24784,7 @@
         <v>622</v>
       </c>
       <c r="H173" s="6">
-        <f>G173*F173</f>
+        <f t="shared" si="2"/>
         <v>36076</v>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
         <v>1311</v>
       </c>
       <c r="H174" s="6">
-        <f>G174*F174</f>
+        <f t="shared" si="2"/>
         <v>112746</v>
       </c>
     </row>
@@ -24838,7 +24838,7 @@
         <v>614</v>
       </c>
       <c r="H175" s="6">
-        <f>G175*F175</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -24865,7 +24865,7 @@
         <v>1803</v>
       </c>
       <c r="H176" s="6">
-        <f>G176*F176</f>
+        <f t="shared" si="2"/>
         <v>133422</v>
       </c>
     </row>
@@ -24892,7 +24892,7 @@
         <v>1183</v>
       </c>
       <c r="H177" s="6">
-        <f>G177*F177</f>
+        <f t="shared" si="2"/>
         <v>92274</v>
       </c>
     </row>
@@ -24919,7 +24919,7 @@
         <v>1758</v>
       </c>
       <c r="H178" s="6">
-        <f>G178*F178</f>
+        <f t="shared" si="2"/>
         <v>103722</v>
       </c>
     </row>
@@ -24946,7 +24946,7 @@
         <v>655</v>
       </c>
       <c r="H179" s="6">
-        <f>G179*F179</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -24973,7 +24973,7 @@
         <v>6557</v>
       </c>
       <c r="H180" s="6">
-        <f>G180*F180</f>
+        <f t="shared" si="2"/>
         <v>380306</v>
       </c>
     </row>
@@ -25000,7 +25000,7 @@
         <v>13934</v>
       </c>
       <c r="H181" s="6">
-        <f>G181*F181</f>
+        <f t="shared" si="2"/>
         <v>1198324</v>
       </c>
     </row>
@@ -25027,7 +25027,7 @@
         <v>1647</v>
       </c>
       <c r="H182" s="6">
-        <f>G182*F182</f>
+        <f t="shared" si="2"/>
         <v>93879</v>
       </c>
     </row>
@@ -25054,7 +25054,7 @@
         <v>327</v>
       </c>
       <c r="H183" s="6">
-        <f>G183*F183</f>
+        <f t="shared" si="2"/>
         <v>16677</v>
       </c>
     </row>
@@ -25081,7 +25081,7 @@
         <v>651</v>
       </c>
       <c r="H184" s="6">
-        <f>G184*F184</f>
+        <f t="shared" si="2"/>
         <v>50127</v>
       </c>
     </row>
@@ -25108,7 +25108,7 @@
         <v>983</v>
       </c>
       <c r="H185" s="6">
-        <f>G185*F185</f>
+        <f t="shared" si="2"/>
         <v>84538</v>
       </c>
     </row>
@@ -25135,7 +25135,7 @@
         <v>1639</v>
       </c>
       <c r="H186" s="6">
-        <f>G186*F186</f>
+        <f t="shared" si="2"/>
         <v>111452</v>
       </c>
     </row>
@@ -25162,7 +25162,7 @@
         <v>1844</v>
       </c>
       <c r="H187" s="6">
-        <f>G187*F187</f>
+        <f t="shared" si="2"/>
         <v>173336</v>
       </c>
     </row>
@@ -25189,7 +25189,7 @@
         <v>409</v>
       </c>
       <c r="H188" s="6">
-        <f>G188*F188</f>
+        <f t="shared" si="2"/>
         <v>29039</v>
       </c>
     </row>
@@ -25216,7 +25216,7 @@
         <v>295</v>
       </c>
       <c r="H189" s="6">
-        <f>G189*F189</f>
+        <f t="shared" si="2"/>
         <v>20355</v>
       </c>
     </row>
@@ -25243,7 +25243,7 @@
         <v>587</v>
       </c>
       <c r="H190" s="6">
-        <f>G190*F190</f>
+        <f t="shared" si="2"/>
         <v>46373</v>
       </c>
     </row>
@@ -25270,7 +25270,7 @@
         <v>919</v>
       </c>
       <c r="H191" s="6">
-        <f>G191*F191</f>
+        <f t="shared" si="2"/>
         <v>83629</v>
       </c>
     </row>
@@ -25297,7 +25297,7 @@
         <v>491</v>
       </c>
       <c r="H192" s="6">
-        <f>G192*F192</f>
+        <f t="shared" si="2"/>
         <v>48609</v>
       </c>
     </row>
@@ -25324,7 +25324,7 @@
         <v>274</v>
       </c>
       <c r="H193" s="6">
-        <f>G193*F193</f>
+        <f t="shared" si="2"/>
         <v>26852</v>
       </c>
     </row>
@@ -25351,7 +25351,7 @@
         <v>524</v>
       </c>
       <c r="H194" s="6">
-        <f>G194*F194</f>
+        <f t="shared" ref="H194:H257" si="3">G194*F194</f>
         <v>43492</v>
       </c>
     </row>
@@ -25378,7 +25378,7 @@
         <v>614</v>
       </c>
       <c r="H195" s="6">
-        <f>G195*F195</f>
+        <f t="shared" si="3"/>
         <v>34998</v>
       </c>
     </row>
@@ -25405,7 +25405,7 @@
         <v>341</v>
       </c>
       <c r="H196" s="6">
-        <f>G196*F196</f>
+        <f t="shared" si="3"/>
         <v>33759</v>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
         <v>327</v>
       </c>
       <c r="H197" s="6">
-        <f>G197*F197</f>
+        <f t="shared" si="3"/>
         <v>27468</v>
       </c>
     </row>
@@ -25459,7 +25459,7 @@
         <v>368</v>
       </c>
       <c r="H198" s="6">
-        <f>G198*F198</f>
+        <f t="shared" si="3"/>
         <v>29440</v>
       </c>
     </row>
@@ -25486,7 +25486,7 @@
         <v>1465</v>
       </c>
       <c r="H199" s="6">
-        <f>G199*F199</f>
+        <f t="shared" si="3"/>
         <v>80575</v>
       </c>
     </row>
@@ -25513,7 +25513,7 @@
         <v>651</v>
       </c>
       <c r="H200" s="6">
-        <f>G200*F200</f>
+        <f t="shared" si="3"/>
         <v>46221</v>
       </c>
     </row>
@@ -25540,7 +25540,7 @@
         <v>1803</v>
       </c>
       <c r="H201" s="6">
-        <f>G201*F201</f>
+        <f t="shared" si="3"/>
         <v>124407</v>
       </c>
     </row>
@@ -25567,7 +25567,7 @@
         <v>2213</v>
       </c>
       <c r="H202" s="6">
-        <f>G202*F202</f>
+        <f t="shared" si="3"/>
         <v>148271</v>
       </c>
     </row>
@@ -25594,7 +25594,7 @@
         <v>573</v>
       </c>
       <c r="H203" s="6">
-        <f>G203*F203</f>
+        <f t="shared" si="3"/>
         <v>46986</v>
       </c>
     </row>
@@ -25621,7 +25621,7 @@
         <v>1696</v>
       </c>
       <c r="H204" s="6">
-        <f>G204*F204</f>
+        <f t="shared" si="3"/>
         <v>115328</v>
       </c>
     </row>
@@ -25648,7 +25648,7 @@
         <v>6557</v>
       </c>
       <c r="H205" s="6">
-        <f>G205*F205</f>
+        <f t="shared" si="3"/>
         <v>557345</v>
       </c>
     </row>
@@ -25675,7 +25675,7 @@
         <v>2459</v>
       </c>
       <c r="H206" s="6">
-        <f>G206*F206</f>
+        <f t="shared" si="3"/>
         <v>199179</v>
       </c>
     </row>
@@ -25702,7 +25702,7 @@
         <v>6557</v>
       </c>
       <c r="H207" s="6">
-        <f>G207*F207</f>
+        <f t="shared" si="3"/>
         <v>596687</v>
       </c>
     </row>
@@ -25729,7 +25729,7 @@
         <v>2065</v>
       </c>
       <c r="H208" s="6">
-        <f>G208*F208</f>
+        <f t="shared" si="3"/>
         <v>117705</v>
       </c>
     </row>
@@ -25756,7 +25756,7 @@
         <v>384</v>
       </c>
       <c r="H209" s="6">
-        <f>G209*F209</f>
+        <f t="shared" si="3"/>
         <v>34560</v>
       </c>
     </row>
@@ -25783,7 +25783,7 @@
         <v>368</v>
       </c>
       <c r="H210" s="6">
-        <f>G210*F210</f>
+        <f t="shared" si="3"/>
         <v>22080</v>
       </c>
     </row>
@@ -25810,7 +25810,7 @@
         <v>549</v>
       </c>
       <c r="H211" s="6">
-        <f>G211*F211</f>
+        <f t="shared" si="3"/>
         <v>53802</v>
       </c>
     </row>
@@ -25837,7 +25837,7 @@
         <v>591</v>
       </c>
       <c r="H212" s="6">
-        <f>G212*F212</f>
+        <f t="shared" si="3"/>
         <v>50826</v>
       </c>
     </row>
@@ -25864,7 +25864,7 @@
         <v>1844</v>
       </c>
       <c r="H213" s="6">
-        <f>G213*F213</f>
+        <f t="shared" si="3"/>
         <v>106952</v>
       </c>
     </row>
@@ -25891,7 +25891,7 @@
         <v>409</v>
       </c>
       <c r="H214" s="6">
-        <f>G214*F214</f>
+        <f t="shared" si="3"/>
         <v>20450</v>
       </c>
     </row>
@@ -25918,7 +25918,7 @@
         <v>555</v>
       </c>
       <c r="H215" s="6">
-        <f>G215*F215</f>
+        <f t="shared" si="3"/>
         <v>54945</v>
       </c>
     </row>
@@ -25945,7 +25945,7 @@
         <v>1844</v>
       </c>
       <c r="H216" s="6">
-        <f>G216*F216</f>
+        <f t="shared" si="3"/>
         <v>160428</v>
       </c>
     </row>
@@ -25972,7 +25972,7 @@
         <v>8240</v>
       </c>
       <c r="H217" s="6">
-        <f>G217*F217</f>
+        <f t="shared" si="3"/>
         <v>461440</v>
       </c>
     </row>
@@ -25999,7 +25999,7 @@
         <v>5327</v>
       </c>
       <c r="H218" s="6">
-        <f>G218*F218</f>
+        <f t="shared" si="3"/>
         <v>362236</v>
       </c>
     </row>
@@ -26026,7 +26026,7 @@
         <v>1549</v>
       </c>
       <c r="H219" s="6">
-        <f>G219*F219</f>
+        <f t="shared" si="3"/>
         <v>151802</v>
       </c>
     </row>
@@ -26053,7 +26053,7 @@
         <v>295</v>
       </c>
       <c r="H220" s="6">
-        <f>G220*F220</f>
+        <f t="shared" si="3"/>
         <v>19470</v>
       </c>
     </row>
@@ -26080,7 +26080,7 @@
         <v>327</v>
       </c>
       <c r="H221" s="6">
-        <f>G221*F221</f>
+        <f t="shared" si="3"/>
         <v>22563</v>
       </c>
     </row>
@@ -26107,7 +26107,7 @@
         <v>311</v>
       </c>
       <c r="H222" s="6">
-        <f>G222*F222</f>
+        <f t="shared" si="3"/>
         <v>27368</v>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
         <v>450</v>
       </c>
       <c r="H223" s="6">
-        <f>G223*F223</f>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
         <v>524</v>
       </c>
       <c r="H224" s="6">
-        <f>G224*F224</f>
+        <f t="shared" si="3"/>
         <v>44016</v>
       </c>
     </row>
@@ -26188,7 +26188,7 @@
         <v>311</v>
       </c>
       <c r="H225" s="6">
-        <f>G225*F225</f>
+        <f t="shared" si="3"/>
         <v>21459</v>
       </c>
     </row>
@@ -26215,7 +26215,7 @@
         <v>1721</v>
       </c>
       <c r="H226" s="6">
-        <f>G226*F226</f>
+        <f t="shared" si="3"/>
         <v>148006</v>
       </c>
     </row>
@@ -26242,7 +26242,7 @@
         <v>1434</v>
       </c>
       <c r="H227" s="6">
-        <f>G227*F227</f>
+        <f t="shared" si="3"/>
         <v>93210</v>
       </c>
     </row>
@@ -26269,7 +26269,7 @@
         <v>1885</v>
       </c>
       <c r="H228" s="6">
-        <f>G228*F228</f>
+        <f t="shared" si="3"/>
         <v>152685</v>
       </c>
     </row>
@@ -26296,7 +26296,7 @@
         <v>515</v>
       </c>
       <c r="H229" s="6">
-        <f>G229*F229</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
     </row>
@@ -26323,7 +26323,7 @@
         <v>591</v>
       </c>
       <c r="H230" s="6">
-        <f>G230*F230</f>
+        <f t="shared" si="3"/>
         <v>54963</v>
       </c>
     </row>
@@ -26350,7 +26350,7 @@
         <v>9016</v>
       </c>
       <c r="H231" s="6">
-        <f>G231*F231</f>
+        <f t="shared" si="3"/>
         <v>549976</v>
       </c>
     </row>
@@ -26377,7 +26377,7 @@
         <v>491</v>
       </c>
       <c r="H232" s="6">
-        <f>G232*F232</f>
+        <f t="shared" si="3"/>
         <v>47136</v>
       </c>
     </row>
@@ -26404,7 +26404,7 @@
         <v>1639</v>
       </c>
       <c r="H233" s="6">
-        <f>G233*F233</f>
+        <f t="shared" si="3"/>
         <v>113091</v>
       </c>
     </row>
@@ -27556,7 +27556,7 @@
         <v>500</v>
       </c>
       <c r="H2" s="7">
-        <f>G2*F2</f>
+        <f t="shared" ref="H2:H65" si="0">G2*F2</f>
         <v>25500</v>
       </c>
     </row>
@@ -27583,7 +27583,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="7">
-        <f>G3*F3</f>
+        <f t="shared" si="0"/>
         <v>91000</v>
       </c>
     </row>
@@ -27610,7 +27610,7 @@
         <v>1500</v>
       </c>
       <c r="H4" s="7">
-        <f>G4*F4</f>
+        <f t="shared" si="0"/>
         <v>129000</v>
       </c>
     </row>
@@ -27637,7 +27637,7 @@
         <v>1500</v>
       </c>
       <c r="H5" s="7">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -27664,7 +27664,7 @@
         <v>2000</v>
       </c>
       <c r="H6" s="7">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>148000</v>
       </c>
     </row>
@@ -27691,7 +27691,7 @@
         <v>1500</v>
       </c>
       <c r="H7" s="7">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>87000</v>
       </c>
     </row>
@@ -27718,7 +27718,7 @@
         <v>700</v>
       </c>
       <c r="H8" s="7">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>56700</v>
       </c>
     </row>
@@ -27745,7 +27745,7 @@
         <v>700</v>
       </c>
       <c r="H9" s="7">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>67900</v>
       </c>
     </row>
@@ -27772,7 +27772,7 @@
         <v>2500</v>
       </c>
       <c r="H10" s="7">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
@@ -27799,7 +27799,7 @@
         <v>700</v>
       </c>
       <c r="H11" s="7">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>66500</v>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
         <v>1500</v>
       </c>
       <c r="H12" s="7">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -27853,7 +27853,7 @@
         <v>2500</v>
       </c>
       <c r="H13" s="7">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>170000</v>
       </c>
     </row>
@@ -27880,7 +27880,7 @@
         <v>500</v>
       </c>
       <c r="H14" s="7">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
     </row>
@@ -27907,7 +27907,7 @@
         <v>1500</v>
       </c>
       <c r="H15" s="7">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>76500</v>
       </c>
     </row>
@@ -27934,7 +27934,7 @@
         <v>12000</v>
       </c>
       <c r="H16" s="7">
-        <f>G16*F16</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
@@ -27961,7 +27961,7 @@
         <v>12000</v>
       </c>
       <c r="H17" s="7">
-        <f>G17*F17</f>
+        <f t="shared" si="0"/>
         <v>696000</v>
       </c>
     </row>
@@ -27988,7 +27988,7 @@
         <v>800</v>
       </c>
       <c r="H18" s="7">
-        <f>G18*F18</f>
+        <f t="shared" si="0"/>
         <v>44000</v>
       </c>
     </row>
@@ -28015,7 +28015,7 @@
         <v>1000</v>
       </c>
       <c r="H19" s="7">
-        <f>G19*F19</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
@@ -28042,7 +28042,7 @@
         <v>2500</v>
       </c>
       <c r="H20" s="7">
-        <f>G20*F20</f>
+        <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
@@ -28069,7 +28069,7 @@
         <v>1000</v>
       </c>
       <c r="H21" s="7">
-        <f>G21*F21</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
     </row>
@@ -28096,7 +28096,7 @@
         <v>1200</v>
       </c>
       <c r="H22" s="7">
-        <f>G22*F22</f>
+        <f t="shared" si="0"/>
         <v>85200</v>
       </c>
     </row>
@@ -28123,7 +28123,7 @@
         <v>1800</v>
       </c>
       <c r="H23" s="7">
-        <f>G23*F23</f>
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
     </row>
@@ -28150,7 +28150,7 @@
         <v>1500</v>
       </c>
       <c r="H24" s="7">
-        <f>G24*F24</f>
+        <f t="shared" si="0"/>
         <v>145500</v>
       </c>
     </row>
@@ -28177,7 +28177,7 @@
         <v>700</v>
       </c>
       <c r="H25" s="7">
-        <f>G25*F25</f>
+        <f t="shared" si="0"/>
         <v>44100</v>
       </c>
     </row>
@@ -28204,7 +28204,7 @@
         <v>1500</v>
       </c>
       <c r="H26" s="7">
-        <f>G26*F26</f>
+        <f t="shared" si="0"/>
         <v>78000</v>
       </c>
     </row>
@@ -28231,7 +28231,7 @@
         <v>1500</v>
       </c>
       <c r="H27" s="7">
-        <f>G27*F27</f>
+        <f t="shared" si="0"/>
         <v>88500</v>
       </c>
     </row>
@@ -28258,7 +28258,7 @@
         <v>500</v>
       </c>
       <c r="H28" s="7">
-        <f>G28*F28</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -28285,7 +28285,7 @@
         <v>700</v>
       </c>
       <c r="H29" s="7">
-        <f>G29*F29</f>
+        <f t="shared" si="0"/>
         <v>46900</v>
       </c>
     </row>
@@ -28312,7 +28312,7 @@
         <v>2500</v>
       </c>
       <c r="H30" s="7">
-        <f>G30*F30</f>
+        <f t="shared" si="0"/>
         <v>202500</v>
       </c>
     </row>
@@ -28339,7 +28339,7 @@
         <v>2000</v>
       </c>
       <c r="H31" s="7">
-        <f>G31*F31</f>
+        <f t="shared" si="0"/>
         <v>124000</v>
       </c>
     </row>
@@ -28366,7 +28366,7 @@
         <v>1500</v>
       </c>
       <c r="H32" s="7">
-        <f>G32*F32</f>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
     </row>
@@ -28393,7 +28393,7 @@
         <v>1500</v>
       </c>
       <c r="H33" s="7">
-        <f>G33*F33</f>
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
@@ -28420,7 +28420,7 @@
         <v>1000</v>
       </c>
       <c r="H34" s="7">
-        <f>G34*F34</f>
+        <f t="shared" si="0"/>
         <v>57000</v>
       </c>
     </row>
@@ -28447,7 +28447,7 @@
         <v>1500</v>
       </c>
       <c r="H35" s="7">
-        <f>G35*F35</f>
+        <f t="shared" si="0"/>
         <v>91500</v>
       </c>
     </row>
@@ -28474,7 +28474,7 @@
         <v>10000</v>
       </c>
       <c r="H36" s="7">
-        <f>G36*F36</f>
+        <f t="shared" si="0"/>
         <v>680000</v>
       </c>
     </row>
@@ -28501,7 +28501,7 @@
         <v>900</v>
       </c>
       <c r="H37" s="7">
-        <f>G37*F37</f>
+        <f t="shared" si="0"/>
         <v>68400</v>
       </c>
     </row>
@@ -28528,7 +28528,7 @@
         <v>1500</v>
       </c>
       <c r="H38" s="7">
-        <f>G38*F38</f>
+        <f t="shared" si="0"/>
         <v>94500</v>
       </c>
     </row>
@@ -28555,7 +28555,7 @@
         <v>3000</v>
       </c>
       <c r="H39" s="7">
-        <f>G39*F39</f>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
@@ -28582,7 +28582,7 @@
         <v>3000</v>
       </c>
       <c r="H40" s="7">
-        <f>G40*F40</f>
+        <f t="shared" si="0"/>
         <v>204000</v>
       </c>
     </row>
@@ -28609,7 +28609,7 @@
         <v>2000</v>
       </c>
       <c r="H41" s="7">
-        <f>G41*F41</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
@@ -28636,7 +28636,7 @@
         <v>700</v>
       </c>
       <c r="H42" s="7">
-        <f>G42*F42</f>
+        <f t="shared" si="0"/>
         <v>59500</v>
       </c>
     </row>
@@ -28663,7 +28663,7 @@
         <v>2000</v>
       </c>
       <c r="H43" s="7">
-        <f>G43*F43</f>
+        <f t="shared" si="0"/>
         <v>106000</v>
       </c>
     </row>
@@ -28690,7 +28690,7 @@
         <v>1500</v>
       </c>
       <c r="H44" s="7">
-        <f>G44*F44</f>
+        <f t="shared" si="0"/>
         <v>108000</v>
       </c>
     </row>
@@ -28717,7 +28717,7 @@
         <v>1500</v>
       </c>
       <c r="H45" s="7">
-        <f>G45*F45</f>
+        <f t="shared" si="0"/>
         <v>103500</v>
       </c>
     </row>
@@ -28744,7 +28744,7 @@
         <v>500</v>
       </c>
       <c r="H46" s="7">
-        <f>G46*F46</f>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
     </row>
@@ -28771,7 +28771,7 @@
         <v>1000</v>
       </c>
       <c r="H47" s="7">
-        <f>G47*F47</f>
+        <f t="shared" si="0"/>
         <v>73000</v>
       </c>
     </row>
@@ -28798,7 +28798,7 @@
         <v>1500</v>
       </c>
       <c r="H48" s="7">
-        <f>G48*F48</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
@@ -28825,7 +28825,7 @@
         <v>1500</v>
       </c>
       <c r="H49" s="7">
-        <f>G49*F49</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -28852,7 +28852,7 @@
         <v>2000</v>
       </c>
       <c r="H50" s="7">
-        <f>G50*F50</f>
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
@@ -28879,7 +28879,7 @@
         <v>2500</v>
       </c>
       <c r="H51" s="7">
-        <f>G51*F51</f>
+        <f t="shared" si="0"/>
         <v>190000</v>
       </c>
     </row>
@@ -28906,7 +28906,7 @@
         <v>1200</v>
       </c>
       <c r="H52" s="7">
-        <f>G52*F52</f>
+        <f t="shared" si="0"/>
         <v>82800</v>
       </c>
     </row>
@@ -28933,7 +28933,7 @@
         <v>3000</v>
       </c>
       <c r="H53" s="7">
-        <f>G53*F53</f>
+        <f t="shared" si="0"/>
         <v>291000</v>
       </c>
     </row>
@@ -28960,7 +28960,7 @@
         <v>5000</v>
       </c>
       <c r="H54" s="7">
-        <f>G54*F54</f>
+        <f t="shared" si="0"/>
         <v>285000</v>
       </c>
     </row>
@@ -28987,7 +28987,7 @@
         <v>700</v>
       </c>
       <c r="H55" s="7">
-        <f>G55*F55</f>
+        <f t="shared" si="0"/>
         <v>55300</v>
       </c>
     </row>
@@ -29014,7 +29014,7 @@
         <v>1500</v>
       </c>
       <c r="H56" s="7">
-        <f>G56*F56</f>
+        <f t="shared" si="0"/>
         <v>93000</v>
       </c>
     </row>
@@ -29041,7 +29041,7 @@
         <v>2000</v>
       </c>
       <c r="H57" s="7">
-        <f>G57*F57</f>
+        <f t="shared" si="0"/>
         <v>174000</v>
       </c>
     </row>
@@ -29068,7 +29068,7 @@
         <v>4500</v>
       </c>
       <c r="H58" s="7">
-        <f>G58*F58</f>
+        <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
@@ -29095,7 +29095,7 @@
         <v>2300</v>
       </c>
       <c r="H59" s="7">
-        <f>G59*F59</f>
+        <f t="shared" si="0"/>
         <v>218500</v>
       </c>
     </row>
@@ -29122,7 +29122,7 @@
         <v>4000</v>
       </c>
       <c r="H60" s="7">
-        <f>G60*F60</f>
+        <f t="shared" si="0"/>
         <v>312000</v>
       </c>
     </row>
@@ -29149,7 +29149,7 @@
         <v>3000</v>
       </c>
       <c r="H61" s="7">
-        <f>G61*F61</f>
+        <f t="shared" si="0"/>
         <v>189000</v>
       </c>
     </row>
@@ -29176,7 +29176,7 @@
         <v>500</v>
       </c>
       <c r="H62" s="7">
-        <f>G62*F62</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -29203,7 +29203,7 @@
         <v>500</v>
       </c>
       <c r="H63" s="7">
-        <f>G63*F63</f>
+        <f t="shared" si="0"/>
         <v>47500</v>
       </c>
     </row>
@@ -29230,7 +29230,7 @@
         <v>1500</v>
       </c>
       <c r="H64" s="7">
-        <f>G64*F64</f>
+        <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
@@ -29257,7 +29257,7 @@
         <v>1100</v>
       </c>
       <c r="H65" s="7">
-        <f>G65*F65</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -29284,7 +29284,7 @@
         <v>1000</v>
       </c>
       <c r="H66" s="7">
-        <f>G66*F66</f>
+        <f t="shared" ref="H66:H129" si="1">G66*F66</f>
         <v>70000</v>
       </c>
     </row>
@@ -29311,7 +29311,7 @@
         <v>1500</v>
       </c>
       <c r="H67" s="7">
-        <f>G67*F67</f>
+        <f t="shared" si="1"/>
         <v>142500</v>
       </c>
     </row>
@@ -29338,7 +29338,7 @@
         <v>500</v>
       </c>
       <c r="H68" s="7">
-        <f>G68*F68</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -29365,7 +29365,7 @@
         <v>2300</v>
       </c>
       <c r="H69" s="7">
-        <f>G69*F69</f>
+        <f t="shared" si="1"/>
         <v>158700</v>
       </c>
     </row>
@@ -29392,7 +29392,7 @@
         <v>1500</v>
       </c>
       <c r="H70" s="7">
-        <f>G70*F70</f>
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
     </row>
@@ -29419,7 +29419,7 @@
         <v>10000</v>
       </c>
       <c r="H71" s="7">
-        <f>G71*F71</f>
+        <f t="shared" si="1"/>
         <v>950000</v>
       </c>
     </row>
@@ -29446,7 +29446,7 @@
         <v>1300</v>
       </c>
       <c r="H72" s="7">
-        <f>G72*F72</f>
+        <f t="shared" si="1"/>
         <v>76700</v>
       </c>
     </row>
@@ -29473,7 +29473,7 @@
         <v>1500</v>
       </c>
       <c r="H73" s="7">
-        <f>G73*F73</f>
+        <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
@@ -29500,7 +29500,7 @@
         <v>1000</v>
       </c>
       <c r="H74" s="7">
-        <f>G74*F74</f>
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
@@ -29527,7 +29527,7 @@
         <v>1800</v>
       </c>
       <c r="H75" s="7">
-        <f>G75*F75</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -29554,7 +29554,7 @@
         <v>500</v>
       </c>
       <c r="H76" s="7">
-        <f>G76*F76</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -29581,7 +29581,7 @@
         <v>6000</v>
       </c>
       <c r="H77" s="7">
-        <f>G77*F77</f>
+        <f t="shared" si="1"/>
         <v>348000</v>
       </c>
     </row>
@@ -29608,7 +29608,7 @@
         <v>500</v>
       </c>
       <c r="H78" s="7">
-        <f>G78*F78</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
     </row>
@@ -29635,7 +29635,7 @@
         <v>2500</v>
       </c>
       <c r="H79" s="7">
-        <f>G79*F79</f>
+        <f t="shared" si="1"/>
         <v>195000</v>
       </c>
     </row>
@@ -29662,7 +29662,7 @@
         <v>2800</v>
       </c>
       <c r="H80" s="7">
-        <f>G80*F80</f>
+        <f t="shared" si="1"/>
         <v>184800</v>
       </c>
     </row>
@@ -29689,7 +29689,7 @@
         <v>3800</v>
       </c>
       <c r="H81" s="7">
-        <f>G81*F81</f>
+        <f t="shared" si="1"/>
         <v>380000</v>
       </c>
     </row>
@@ -29716,7 +29716,7 @@
         <v>500</v>
       </c>
       <c r="H82" s="7">
-        <f>G82*F82</f>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
@@ -29743,7 +29743,7 @@
         <v>2500</v>
       </c>
       <c r="H83" s="7">
-        <f>G83*F83</f>
+        <f t="shared" si="1"/>
         <v>197500</v>
       </c>
     </row>
@@ -29770,7 +29770,7 @@
         <v>4000</v>
       </c>
       <c r="H84" s="7">
-        <f>G84*F84</f>
+        <f t="shared" si="1"/>
         <v>316000</v>
       </c>
     </row>
@@ -29797,7 +29797,7 @@
         <v>800</v>
       </c>
       <c r="H85" s="7">
-        <f>G85*F85</f>
+        <f t="shared" si="1"/>
         <v>79200</v>
       </c>
     </row>
@@ -29824,7 +29824,7 @@
         <v>2500</v>
       </c>
       <c r="H86" s="7">
-        <f>G86*F86</f>
+        <f t="shared" si="1"/>
         <v>202500</v>
       </c>
     </row>
@@ -29851,7 +29851,7 @@
         <v>2500</v>
       </c>
       <c r="H87" s="7">
-        <f>G87*F87</f>
+        <f t="shared" si="1"/>
         <v>192500</v>
       </c>
     </row>
@@ -29878,7 +29878,7 @@
         <v>1500</v>
       </c>
       <c r="H88" s="7">
-        <f>G88*F88</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -29905,7 +29905,7 @@
         <v>1500</v>
       </c>
       <c r="H89" s="7">
-        <f>G89*F89</f>
+        <f t="shared" si="1"/>
         <v>115500</v>
       </c>
     </row>
@@ -29932,7 +29932,7 @@
         <v>700</v>
       </c>
       <c r="H90" s="7">
-        <f>G90*F90</f>
+        <f t="shared" si="1"/>
         <v>37100</v>
       </c>
     </row>
@@ -29959,7 +29959,7 @@
         <v>2000</v>
       </c>
       <c r="H91" s="7">
-        <f>G91*F91</f>
+        <f t="shared" si="1"/>
         <v>182000</v>
       </c>
     </row>
@@ -29986,7 +29986,7 @@
         <v>1000</v>
       </c>
       <c r="H92" s="7">
-        <f>G92*F92</f>
+        <f t="shared" si="1"/>
         <v>55000</v>
       </c>
     </row>
@@ -30013,7 +30013,7 @@
         <v>1000</v>
       </c>
       <c r="H93" s="7">
-        <f>G93*F93</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -30040,7 +30040,7 @@
         <v>700</v>
       </c>
       <c r="H94" s="7">
-        <f>G94*F94</f>
+        <f t="shared" si="1"/>
         <v>46200</v>
       </c>
     </row>
@@ -30067,7 +30067,7 @@
         <v>1500</v>
       </c>
       <c r="H95" s="7">
-        <f>G95*F95</f>
+        <f t="shared" si="1"/>
         <v>79500</v>
       </c>
     </row>
@@ -30094,7 +30094,7 @@
         <v>1000</v>
       </c>
       <c r="H96" s="7">
-        <f>G96*F96</f>
+        <f t="shared" si="1"/>
         <v>97000</v>
       </c>
     </row>
@@ -30121,7 +30121,7 @@
         <v>12000</v>
       </c>
       <c r="H97" s="7">
-        <f>G97*F97</f>
+        <f t="shared" si="1"/>
         <v>780000</v>
       </c>
     </row>
@@ -30148,7 +30148,7 @@
         <v>1000</v>
       </c>
       <c r="H98" s="7">
-        <f>G98*F98</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -30175,7 +30175,7 @@
         <v>500</v>
       </c>
       <c r="H99" s="7">
-        <f>G99*F99</f>
+        <f t="shared" si="1"/>
         <v>44500</v>
       </c>
     </row>
@@ -30202,7 +30202,7 @@
         <v>900</v>
       </c>
       <c r="H100" s="7">
-        <f>G100*F100</f>
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
     </row>
@@ -30229,7 +30229,7 @@
         <v>3000</v>
       </c>
       <c r="H101" s="7">
-        <f>G101*F101</f>
+        <f t="shared" si="1"/>
         <v>204000</v>
       </c>
     </row>
@@ -30256,7 +30256,7 @@
         <v>1100</v>
       </c>
       <c r="H102" s="7">
-        <f>G102*F102</f>
+        <f t="shared" si="1"/>
         <v>66000</v>
       </c>
     </row>
@@ -30283,7 +30283,7 @@
         <v>13000</v>
       </c>
       <c r="H103" s="7">
-        <f>G103*F103</f>
+        <f t="shared" si="1"/>
         <v>650000</v>
       </c>
     </row>
@@ -30310,7 +30310,7 @@
         <v>900</v>
       </c>
       <c r="H104" s="7">
-        <f>G104*F104</f>
+        <f t="shared" si="1"/>
         <v>53100</v>
       </c>
     </row>
@@ -30337,7 +30337,7 @@
         <v>2000</v>
       </c>
       <c r="H105" s="7">
-        <f>G105*F105</f>
+        <f t="shared" si="1"/>
         <v>104000</v>
       </c>
     </row>
@@ -30364,7 +30364,7 @@
         <v>1000</v>
       </c>
       <c r="H106" s="7">
-        <f>G106*F106</f>
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
     </row>
@@ -30391,7 +30391,7 @@
         <v>1500</v>
       </c>
       <c r="H107" s="7">
-        <f>G107*F107</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -30418,7 +30418,7 @@
         <v>3000</v>
       </c>
       <c r="H108" s="7">
-        <f>G108*F108</f>
+        <f t="shared" si="1"/>
         <v>279000</v>
       </c>
     </row>
@@ -30445,7 +30445,7 @@
         <v>800</v>
       </c>
       <c r="H109" s="7">
-        <f>G109*F109</f>
+        <f t="shared" si="1"/>
         <v>43200</v>
       </c>
     </row>
@@ -30472,7 +30472,7 @@
         <v>5000</v>
       </c>
       <c r="H110" s="7">
-        <f>G110*F110</f>
+        <f t="shared" si="1"/>
         <v>305000</v>
       </c>
     </row>
@@ -30499,7 +30499,7 @@
         <v>1200</v>
       </c>
       <c r="H111" s="7">
-        <f>G111*F111</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -30526,7 +30526,7 @@
         <v>800</v>
       </c>
       <c r="H112" s="7">
-        <f>G112*F112</f>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
@@ -30553,7 +30553,7 @@
         <v>2500</v>
       </c>
       <c r="H113" s="7">
-        <f>G113*F113</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -30580,7 +30580,7 @@
         <v>2500</v>
       </c>
       <c r="H114" s="7">
-        <f>G114*F114</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
@@ -30607,7 +30607,7 @@
         <v>1500</v>
       </c>
       <c r="H115" s="7">
-        <f>G115*F115</f>
+        <f t="shared" si="1"/>
         <v>141000</v>
       </c>
     </row>
@@ -30634,7 +30634,7 @@
         <v>2500</v>
       </c>
       <c r="H116" s="7">
-        <f>G116*F116</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -30661,7 +30661,7 @@
         <v>1500</v>
       </c>
       <c r="H117" s="7">
-        <f>G117*F117</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
@@ -30688,7 +30688,7 @@
         <v>500</v>
       </c>
       <c r="H118" s="7">
-        <f>G118*F118</f>
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
     </row>
@@ -30715,7 +30715,7 @@
         <v>1000</v>
       </c>
       <c r="H119" s="7">
-        <f>G119*F119</f>
+        <f t="shared" si="1"/>
         <v>74000</v>
       </c>
     </row>
@@ -30742,7 +30742,7 @@
         <v>2500</v>
       </c>
       <c r="H120" s="7">
-        <f>G120*F120</f>
+        <f t="shared" si="1"/>
         <v>187500</v>
       </c>
     </row>
@@ -30769,7 +30769,7 @@
         <v>1800</v>
       </c>
       <c r="H121" s="7">
-        <f>G121*F121</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -30796,7 +30796,7 @@
         <v>1000</v>
       </c>
       <c r="H122" s="7">
-        <f>G122*F122</f>
+        <f t="shared" si="1"/>
         <v>87000</v>
       </c>
     </row>
@@ -30823,7 +30823,7 @@
         <v>9000</v>
       </c>
       <c r="H123" s="7">
-        <f>G123*F123</f>
+        <f t="shared" si="1"/>
         <v>468000</v>
       </c>
     </row>
@@ -30850,7 +30850,7 @@
         <v>2000</v>
       </c>
       <c r="H124" s="7">
-        <f>G124*F124</f>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
     </row>
@@ -30877,7 +30877,7 @@
         <v>600</v>
       </c>
       <c r="H125" s="7">
-        <f>G125*F125</f>
+        <f t="shared" si="1"/>
         <v>42600</v>
       </c>
     </row>
@@ -30904,7 +30904,7 @@
         <v>1500</v>
       </c>
       <c r="H126" s="7">
-        <f>G126*F126</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -30931,7 +30931,7 @@
         <v>2000</v>
       </c>
       <c r="H127" s="7">
-        <f>G127*F127</f>
+        <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
@@ -30958,7 +30958,7 @@
         <v>800</v>
       </c>
       <c r="H128" s="7">
-        <f>G128*F128</f>
+        <f t="shared" si="1"/>
         <v>58400</v>
       </c>
     </row>
@@ -30985,7 +30985,7 @@
         <v>1200</v>
       </c>
       <c r="H129" s="7">
-        <f>G129*F129</f>
+        <f t="shared" si="1"/>
         <v>87600</v>
       </c>
     </row>
@@ -31012,7 +31012,7 @@
         <v>5500</v>
       </c>
       <c r="H130" s="7">
-        <f>G130*F130</f>
+        <f t="shared" ref="H130:H193" si="2">G130*F130</f>
         <v>352000</v>
       </c>
     </row>
@@ -31039,7 +31039,7 @@
         <v>1000</v>
       </c>
       <c r="H131" s="7">
-        <f>G131*F131</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -31066,7 +31066,7 @@
         <v>1000</v>
       </c>
       <c r="H132" s="7">
-        <f>G132*F132</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -31093,7 +31093,7 @@
         <v>2000</v>
       </c>
       <c r="H133" s="7">
-        <f>G133*F133</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -31120,7 +31120,7 @@
         <v>800</v>
       </c>
       <c r="H134" s="7">
-        <f>G134*F134</f>
+        <f t="shared" si="2"/>
         <v>68800</v>
       </c>
     </row>
@@ -31147,7 +31147,7 @@
         <v>1200</v>
       </c>
       <c r="H135" s="7">
-        <f>G135*F135</f>
+        <f t="shared" si="2"/>
         <v>61200</v>
       </c>
     </row>
@@ -31174,7 +31174,7 @@
         <v>2800</v>
       </c>
       <c r="H136" s="7">
-        <f>G136*F136</f>
+        <f t="shared" si="2"/>
         <v>263200</v>
       </c>
     </row>
@@ -31201,7 +31201,7 @@
         <v>1000</v>
       </c>
       <c r="H137" s="7">
-        <f>G137*F137</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
     </row>
@@ -31228,7 +31228,7 @@
         <v>5500</v>
       </c>
       <c r="H138" s="7">
-        <f>G138*F138</f>
+        <f t="shared" si="2"/>
         <v>390500</v>
       </c>
     </row>
@@ -31255,7 +31255,7 @@
         <v>900</v>
       </c>
       <c r="H139" s="7">
-        <f>G139*F139</f>
+        <f t="shared" si="2"/>
         <v>83700</v>
       </c>
     </row>
@@ -31282,7 +31282,7 @@
         <v>1000</v>
       </c>
       <c r="H140" s="7">
-        <f>G140*F140</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -31309,7 +31309,7 @@
         <v>2500</v>
       </c>
       <c r="H141" s="7">
-        <f>G141*F141</f>
+        <f t="shared" si="2"/>
         <v>242500</v>
       </c>
     </row>
@@ -31336,7 +31336,7 @@
         <v>8000</v>
       </c>
       <c r="H142" s="7">
-        <f>G142*F142</f>
+        <f t="shared" si="2"/>
         <v>576000</v>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
         <v>2000</v>
       </c>
       <c r="H143" s="7">
-        <f>G143*F143</f>
+        <f t="shared" si="2"/>
         <v>146000</v>
       </c>
     </row>
@@ -31390,7 +31390,7 @@
         <v>1500</v>
       </c>
       <c r="H144" s="7">
-        <f>G144*F144</f>
+        <f t="shared" si="2"/>
         <v>133500</v>
       </c>
     </row>
@@ -31417,7 +31417,7 @@
         <v>1800</v>
       </c>
       <c r="H145" s="7">
-        <f>G145*F145</f>
+        <f t="shared" si="2"/>
         <v>147600</v>
       </c>
     </row>
@@ -31444,7 +31444,7 @@
         <v>500</v>
       </c>
       <c r="H146" s="7">
-        <f>G146*F146</f>
+        <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
@@ -31471,7 +31471,7 @@
         <v>1200</v>
       </c>
       <c r="H147" s="7">
-        <f>G147*F147</f>
+        <f t="shared" si="2"/>
         <v>73200</v>
       </c>
     </row>
@@ -31498,7 +31498,7 @@
         <v>2500</v>
       </c>
       <c r="H148" s="7">
-        <f>G148*F148</f>
+        <f t="shared" si="2"/>
         <v>237500</v>
       </c>
     </row>
@@ -31525,7 +31525,7 @@
         <v>600</v>
       </c>
       <c r="H149" s="7">
-        <f>G149*F149</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
     </row>
@@ -31552,7 +31552,7 @@
         <v>2500</v>
       </c>
       <c r="H150" s="7">
-        <f>G150*F150</f>
+        <f t="shared" si="2"/>
         <v>192500</v>
       </c>
     </row>
@@ -31579,7 +31579,7 @@
         <v>6000</v>
       </c>
       <c r="H151" s="7">
-        <f>G151*F151</f>
+        <f t="shared" si="2"/>
         <v>498000</v>
       </c>
     </row>
@@ -31606,7 +31606,7 @@
         <v>700</v>
       </c>
       <c r="H152" s="7">
-        <f>G152*F152</f>
+        <f t="shared" si="2"/>
         <v>50400</v>
       </c>
     </row>
@@ -31633,7 +31633,7 @@
         <v>1000</v>
       </c>
       <c r="H153" s="7">
-        <f>G153*F153</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -31660,7 +31660,7 @@
         <v>2500</v>
       </c>
       <c r="H154" s="7">
-        <f>G154*F154</f>
+        <f t="shared" si="2"/>
         <v>227500</v>
       </c>
     </row>
@@ -31687,7 +31687,7 @@
         <v>3000</v>
       </c>
       <c r="H155" s="7">
-        <f>G155*F155</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -31714,7 +31714,7 @@
         <v>3000</v>
       </c>
       <c r="H156" s="7">
-        <f>G156*F156</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -31741,7 +31741,7 @@
         <v>3000</v>
       </c>
       <c r="H157" s="7">
-        <f>G157*F157</f>
+        <f t="shared" si="2"/>
         <v>246000</v>
       </c>
     </row>
@@ -31768,7 +31768,7 @@
         <v>3000</v>
       </c>
       <c r="H158" s="7">
-        <f>G158*F158</f>
+        <f t="shared" si="2"/>
         <v>276000</v>
       </c>
     </row>
@@ -31795,7 +31795,7 @@
         <v>600</v>
       </c>
       <c r="H159" s="7">
-        <f>G159*F159</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -31822,7 +31822,7 @@
         <v>600</v>
       </c>
       <c r="H160" s="7">
-        <f>G160*F160</f>
+        <f t="shared" si="2"/>
         <v>30600</v>
       </c>
     </row>
@@ -31849,7 +31849,7 @@
         <v>1000</v>
       </c>
       <c r="H161" s="7">
-        <f>G161*F161</f>
+        <f t="shared" si="2"/>
         <v>83000</v>
       </c>
     </row>
@@ -31876,7 +31876,7 @@
         <v>2000</v>
       </c>
       <c r="H162" s="7">
-        <f>G162*F162</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -31903,7 +31903,7 @@
         <v>1800</v>
       </c>
       <c r="H163" s="7">
-        <f>G163*F163</f>
+        <f t="shared" si="2"/>
         <v>149400</v>
       </c>
     </row>
@@ -31930,7 +31930,7 @@
         <v>1800</v>
       </c>
       <c r="H164" s="7">
-        <f>G164*F164</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -31957,7 +31957,7 @@
         <v>600</v>
       </c>
       <c r="H165" s="7">
-        <f>G165*F165</f>
+        <f t="shared" si="2"/>
         <v>35400</v>
       </c>
     </row>
@@ -31984,7 +31984,7 @@
         <v>1000</v>
       </c>
       <c r="H166" s="7">
-        <f>G166*F166</f>
+        <f t="shared" si="2"/>
         <v>57000</v>
       </c>
     </row>
@@ -32011,7 +32011,7 @@
         <v>500</v>
       </c>
       <c r="H167" s="7">
-        <f>G167*F167</f>
+        <f t="shared" si="2"/>
         <v>41000</v>
       </c>
     </row>
@@ -32038,7 +32038,7 @@
         <v>2000</v>
       </c>
       <c r="H168" s="7">
-        <f>G168*F168</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -32065,7 +32065,7 @@
         <v>3000</v>
       </c>
       <c r="H169" s="7">
-        <f>G169*F169</f>
+        <f t="shared" si="2"/>
         <v>258000</v>
       </c>
     </row>
@@ -32092,7 +32092,7 @@
         <v>300</v>
       </c>
       <c r="H170" s="7">
-        <f>G170*F170</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
     </row>
@@ -32119,7 +32119,7 @@
         <v>20000</v>
       </c>
       <c r="H171" s="7">
-        <f>G171*F171</f>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
     </row>
@@ -32146,7 +32146,7 @@
         <v>12000</v>
       </c>
       <c r="H172" s="7">
-        <f>G172*F172</f>
+        <f t="shared" si="2"/>
         <v>1080000</v>
       </c>
     </row>
@@ -32173,7 +32173,7 @@
         <v>1000</v>
       </c>
       <c r="H173" s="7">
-        <f>G173*F173</f>
+        <f t="shared" si="2"/>
         <v>93000</v>
       </c>
     </row>
@@ -32200,7 +32200,7 @@
         <v>5000</v>
       </c>
       <c r="H174" s="7">
-        <f>G174*F174</f>
+        <f t="shared" si="2"/>
         <v>265000</v>
       </c>
     </row>
@@ -32227,7 +32227,7 @@
         <v>2500</v>
       </c>
       <c r="H175" s="7">
-        <f>G175*F175</f>
+        <f t="shared" si="2"/>
         <v>232500</v>
       </c>
     </row>
@@ -32254,7 +32254,7 @@
         <v>700</v>
       </c>
       <c r="H176" s="7">
-        <f>G176*F176</f>
+        <f t="shared" si="2"/>
         <v>65800</v>
       </c>
     </row>
@@ -32281,7 +32281,7 @@
         <v>800</v>
       </c>
       <c r="H177" s="7">
-        <f>G177*F177</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
@@ -32308,7 +32308,7 @@
         <v>1500</v>
       </c>
       <c r="H178" s="7">
-        <f>G178*F178</f>
+        <f t="shared" si="2"/>
         <v>142500</v>
       </c>
     </row>
@@ -32335,7 +32335,7 @@
         <v>1000</v>
       </c>
       <c r="H179" s="7">
-        <f>G179*F179</f>
+        <f t="shared" si="2"/>
         <v>52000</v>
       </c>
     </row>
@@ -32362,7 +32362,7 @@
         <v>4000</v>
       </c>
       <c r="H180" s="7">
-        <f>G180*F180</f>
+        <f t="shared" si="2"/>
         <v>212000</v>
       </c>
     </row>
@@ -32389,7 +32389,7 @@
         <v>2800</v>
       </c>
       <c r="H181" s="7">
-        <f>G181*F181</f>
+        <f t="shared" si="2"/>
         <v>232400</v>
       </c>
     </row>
@@ -32416,7 +32416,7 @@
         <v>1200</v>
       </c>
       <c r="H182" s="7">
-        <f>G182*F182</f>
+        <f t="shared" si="2"/>
         <v>116400</v>
       </c>
     </row>
@@ -32443,7 +32443,7 @@
         <v>2500</v>
       </c>
       <c r="H183" s="7">
-        <f>G183*F183</f>
+        <f t="shared" si="2"/>
         <v>147500</v>
       </c>
     </row>
@@ -32470,7 +32470,7 @@
         <v>1000</v>
       </c>
       <c r="H184" s="7">
-        <f>G184*F184</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -32497,7 +32497,7 @@
         <v>1500</v>
       </c>
       <c r="H185" s="7">
-        <f>G185*F185</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -32524,7 +32524,7 @@
         <v>1000</v>
       </c>
       <c r="H186" s="7">
-        <f>G186*F186</f>
+        <f t="shared" si="2"/>
         <v>97000</v>
       </c>
     </row>
@@ -32551,7 +32551,7 @@
         <v>1800</v>
       </c>
       <c r="H187" s="7">
-        <f>G187*F187</f>
+        <f t="shared" si="2"/>
         <v>171000</v>
       </c>
     </row>
@@ -32578,7 +32578,7 @@
         <v>2500</v>
       </c>
       <c r="H188" s="7">
-        <f>G188*F188</f>
+        <f t="shared" si="2"/>
         <v>160000</v>
       </c>
     </row>
@@ -32605,7 +32605,7 @@
         <v>500</v>
       </c>
       <c r="H189" s="7">
-        <f>G189*F189</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -32632,7 +32632,7 @@
         <v>1500</v>
       </c>
       <c r="H190" s="7">
-        <f>G190*F190</f>
+        <f t="shared" si="2"/>
         <v>112500</v>
       </c>
     </row>
@@ -32659,7 +32659,7 @@
         <v>1500</v>
       </c>
       <c r="H191" s="7">
-        <f>G191*F191</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -32686,7 +32686,7 @@
         <v>600</v>
       </c>
       <c r="H192" s="7">
-        <f>G192*F192</f>
+        <f t="shared" si="2"/>
         <v>39600</v>
       </c>
     </row>
@@ -32713,7 +32713,7 @@
         <v>1800</v>
       </c>
       <c r="H193" s="7">
-        <f>G193*F193</f>
+        <f t="shared" si="2"/>
         <v>99000</v>
       </c>
     </row>
@@ -32740,7 +32740,7 @@
         <v>4000</v>
       </c>
       <c r="H194" s="7">
-        <f>G194*F194</f>
+        <f t="shared" ref="H194:H257" si="3">G194*F194</f>
         <v>340000</v>
       </c>
     </row>
@@ -32767,7 +32767,7 @@
         <v>1000</v>
       </c>
       <c r="H195" s="7">
-        <f>G195*F195</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -32794,7 +32794,7 @@
         <v>700</v>
       </c>
       <c r="H196" s="7">
-        <f>G196*F196</f>
+        <f t="shared" si="3"/>
         <v>59500</v>
       </c>
     </row>
@@ -32821,7 +32821,7 @@
         <v>800</v>
       </c>
       <c r="H197" s="7">
-        <f>G197*F197</f>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
     </row>
@@ -32848,7 +32848,7 @@
         <v>1000</v>
       </c>
       <c r="H198" s="7">
-        <f>G198*F198</f>
+        <f t="shared" si="3"/>
         <v>83000</v>
       </c>
     </row>
@@ -32875,7 +32875,7 @@
         <v>1500</v>
       </c>
       <c r="H199" s="7">
-        <f>G199*F199</f>
+        <f t="shared" si="3"/>
         <v>133500</v>
       </c>
     </row>
@@ -32902,7 +32902,7 @@
         <v>600</v>
       </c>
       <c r="H200" s="7">
-        <f>G200*F200</f>
+        <f t="shared" si="3"/>
         <v>43200</v>
       </c>
     </row>
@@ -32929,7 +32929,7 @@
         <v>500</v>
       </c>
       <c r="H201" s="7">
-        <f>G201*F201</f>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
     </row>
@@ -32956,7 +32956,7 @@
         <v>1500</v>
       </c>
       <c r="H202" s="7">
-        <f>G202*F202</f>
+        <f t="shared" si="3"/>
         <v>145500</v>
       </c>
     </row>
@@ -32983,7 +32983,7 @@
         <v>1000</v>
       </c>
       <c r="H203" s="7">
-        <f>G203*F203</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -33010,7 +33010,7 @@
         <v>1200</v>
       </c>
       <c r="H204" s="7">
-        <f>G204*F204</f>
+        <f t="shared" si="3"/>
         <v>114000</v>
       </c>
     </row>
@@ -33037,7 +33037,7 @@
         <v>2500</v>
       </c>
       <c r="H205" s="7">
-        <f>G205*F205</f>
+        <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
@@ -33064,7 +33064,7 @@
         <v>800</v>
       </c>
       <c r="H206" s="7">
-        <f>G206*F206</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -33091,7 +33091,7 @@
         <v>500</v>
       </c>
       <c r="H207" s="7">
-        <f>G207*F207</f>
+        <f t="shared" si="3"/>
         <v>46500</v>
       </c>
     </row>
@@ -33118,7 +33118,7 @@
         <v>2500</v>
       </c>
       <c r="H208" s="7">
-        <f>G208*F208</f>
+        <f t="shared" si="3"/>
         <v>132500</v>
       </c>
     </row>
@@ -33145,7 +33145,7 @@
         <v>1500</v>
       </c>
       <c r="H209" s="7">
-        <f>G209*F209</f>
+        <f t="shared" si="3"/>
         <v>129000</v>
       </c>
     </row>
@@ -33172,7 +33172,7 @@
         <v>18000</v>
       </c>
       <c r="H210" s="7">
-        <f>G210*F210</f>
+        <f t="shared" si="3"/>
         <v>1026000</v>
       </c>
     </row>
@@ -33199,7 +33199,7 @@
         <v>800</v>
       </c>
       <c r="H211" s="7">
-        <f>G211*F211</f>
+        <f t="shared" si="3"/>
         <v>75200</v>
       </c>
     </row>
@@ -33226,7 +33226,7 @@
         <v>500</v>
       </c>
       <c r="H212" s="7">
-        <f>G212*F212</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
     </row>
@@ -33253,7 +33253,7 @@
         <v>1200</v>
       </c>
       <c r="H213" s="7">
-        <f>G213*F213</f>
+        <f t="shared" si="3"/>
         <v>115200</v>
       </c>
     </row>
@@ -33280,7 +33280,7 @@
         <v>3000</v>
       </c>
       <c r="H214" s="7">
-        <f>G214*F214</f>
+        <f t="shared" si="3"/>
         <v>291000</v>
       </c>
     </row>
@@ -33307,7 +33307,7 @@
         <v>5000</v>
       </c>
       <c r="H215" s="7">
-        <f>G215*F215</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -33334,7 +33334,7 @@
         <v>700</v>
       </c>
       <c r="H216" s="7">
-        <f>G216*F216</f>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
     </row>
@@ -33361,7 +33361,7 @@
         <v>1300</v>
       </c>
       <c r="H217" s="7">
-        <f>G217*F217</f>
+        <f t="shared" si="3"/>
         <v>102700</v>
       </c>
     </row>
@@ -33388,7 +33388,7 @@
         <v>3000</v>
       </c>
       <c r="H218" s="7">
-        <f>G218*F218</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -33415,7 +33415,7 @@
         <v>7000</v>
       </c>
       <c r="H219" s="7">
-        <f>G219*F219</f>
+        <f t="shared" si="3"/>
         <v>357000</v>
       </c>
     </row>
@@ -33442,7 +33442,7 @@
         <v>1500</v>
       </c>
       <c r="H220" s="7">
-        <f>G220*F220</f>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
     </row>
@@ -33469,7 +33469,7 @@
         <v>2500</v>
       </c>
       <c r="H221" s="7">
-        <f>G221*F221</f>
+        <f t="shared" si="3"/>
         <v>155000</v>
       </c>
     </row>
@@ -33496,7 +33496,7 @@
         <v>700</v>
       </c>
       <c r="H222" s="7">
-        <f>G222*F222</f>
+        <f t="shared" si="3"/>
         <v>44100</v>
       </c>
     </row>
@@ -33523,7 +33523,7 @@
         <v>1000</v>
       </c>
       <c r="H223" s="7">
-        <f>G223*F223</f>
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
     </row>
@@ -33550,7 +33550,7 @@
         <v>1000</v>
       </c>
       <c r="H224" s="7">
-        <f>G224*F224</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -33577,7 +33577,7 @@
         <v>1500</v>
       </c>
       <c r="H225" s="7">
-        <f>G225*F225</f>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
     </row>
@@ -33604,7 +33604,7 @@
         <v>3000</v>
       </c>
       <c r="H226" s="7">
-        <f>G226*F226</f>
+        <f t="shared" si="3"/>
         <v>177000</v>
       </c>
     </row>
@@ -33631,7 +33631,7 @@
         <v>1000</v>
       </c>
       <c r="H227" s="7">
-        <f>G227*F227</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -33658,7 +33658,7 @@
         <v>800</v>
       </c>
       <c r="H228" s="7">
-        <f>G228*F228</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -33685,7 +33685,7 @@
         <v>5000</v>
       </c>
       <c r="H229" s="7">
-        <f>G229*F229</f>
+        <f t="shared" si="3"/>
         <v>375000</v>
       </c>
     </row>
@@ -33712,7 +33712,7 @@
         <v>1000</v>
       </c>
       <c r="H230" s="7">
-        <f>G230*F230</f>
+        <f t="shared" si="3"/>
         <v>77000</v>
       </c>
     </row>
@@ -33739,7 +33739,7 @@
         <v>1500</v>
       </c>
       <c r="H231" s="7">
-        <f>G231*F231</f>
+        <f t="shared" si="3"/>
         <v>121500</v>
       </c>
     </row>
@@ -33766,7 +33766,7 @@
         <v>1500</v>
       </c>
       <c r="H232" s="7">
-        <f>G232*F232</f>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
@@ -33793,7 +33793,7 @@
         <v>1000</v>
       </c>
       <c r="H233" s="7">
-        <f>G233*F233</f>
+        <f t="shared" si="3"/>
         <v>97000</v>
       </c>
     </row>
@@ -33820,7 +33820,7 @@
         <v>1500</v>
       </c>
       <c r="H234" s="7">
-        <f>G234*F234</f>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
@@ -33847,7 +33847,7 @@
         <v>1200</v>
       </c>
       <c r="H235" s="7">
-        <f>G235*F235</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -33874,7 +33874,7 @@
         <v>2500</v>
       </c>
       <c r="H236" s="7">
-        <f>G236*F236</f>
+        <f t="shared" si="3"/>
         <v>205000</v>
       </c>
     </row>
@@ -33901,7 +33901,7 @@
         <v>1300</v>
       </c>
       <c r="H237" s="7">
-        <f>G237*F237</f>
+        <f t="shared" si="3"/>
         <v>80600</v>
       </c>
     </row>
@@ -33928,7 +33928,7 @@
         <v>600</v>
       </c>
       <c r="H238" s="7">
-        <f>G238*F238</f>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -33955,7 +33955,7 @@
         <v>1500</v>
       </c>
       <c r="H239" s="7">
-        <f>G239*F239</f>
+        <f t="shared" si="3"/>
         <v>93000</v>
       </c>
     </row>
@@ -33982,7 +33982,7 @@
         <v>500</v>
       </c>
       <c r="H240" s="7">
-        <f>G240*F240</f>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
     </row>
@@ -34009,7 +34009,7 @@
         <v>1500</v>
       </c>
       <c r="H241" s="7">
-        <f>G241*F241</f>
+        <f t="shared" si="3"/>
         <v>109500</v>
       </c>
     </row>
@@ -34036,7 +34036,7 @@
         <v>1500</v>
       </c>
       <c r="H242" s="7">
-        <f>G242*F242</f>
+        <f t="shared" si="3"/>
         <v>85500</v>
       </c>
     </row>
@@ -34063,7 +34063,7 @@
         <v>2800</v>
       </c>
       <c r="H243" s="7">
-        <f>G243*F243</f>
+        <f t="shared" si="3"/>
         <v>260400</v>
       </c>
     </row>
@@ -34090,7 +34090,7 @@
         <v>1500</v>
       </c>
       <c r="H244" s="7">
-        <f>G244*F244</f>
+        <f t="shared" si="3"/>
         <v>139500</v>
       </c>
     </row>
@@ -34117,7 +34117,7 @@
         <v>1000</v>
       </c>
       <c r="H245" s="7">
-        <f>G245*F245</f>
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
     </row>
@@ -34144,7 +34144,7 @@
         <v>1800</v>
       </c>
       <c r="H246" s="7">
-        <f>G246*F246</f>
+        <f t="shared" si="3"/>
         <v>106200</v>
       </c>
     </row>
@@ -34171,7 +34171,7 @@
         <v>1000</v>
       </c>
       <c r="H247" s="7">
-        <f>G247*F247</f>
+        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
@@ -34198,7 +34198,7 @@
         <v>15000</v>
       </c>
       <c r="H248" s="7">
-        <f>G248*F248</f>
+        <f t="shared" si="3"/>
         <v>1020000</v>
       </c>
     </row>
@@ -34225,7 +34225,7 @@
         <v>1500</v>
       </c>
       <c r="H249" s="7">
-        <f>G249*F249</f>
+        <f t="shared" si="3"/>
         <v>111000</v>
       </c>
     </row>
@@ -34252,7 +34252,7 @@
         <v>2500</v>
       </c>
       <c r="H250" s="7">
-        <f>G250*F250</f>
+        <f t="shared" si="3"/>
         <v>215000</v>
       </c>
     </row>
@@ -34279,7 +34279,7 @@
         <v>1200</v>
       </c>
       <c r="H251" s="7">
-        <f>G251*F251</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -34306,7 +34306,7 @@
         <v>1500</v>
       </c>
       <c r="H252" s="7">
-        <f>G252*F252</f>
+        <f t="shared" si="3"/>
         <v>81000</v>
       </c>
     </row>
@@ -34333,7 +34333,7 @@
         <v>1000</v>
       </c>
       <c r="H253" s="7">
-        <f>G253*F253</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -34360,7 +34360,7 @@
         <v>1500</v>
       </c>
       <c r="H254" s="7">
-        <f>G254*F254</f>
+        <f t="shared" si="3"/>
         <v>130500</v>
       </c>
     </row>
@@ -34387,7 +34387,7 @@
         <v>1200</v>
       </c>
       <c r="H255" s="7">
-        <f>G255*F255</f>
+        <f t="shared" si="3"/>
         <v>111600</v>
       </c>
     </row>
@@ -34414,7 +34414,7 @@
         <v>1000</v>
       </c>
       <c r="H256" s="7">
-        <f>G256*F256</f>
+        <f t="shared" si="3"/>
         <v>88000</v>
       </c>
     </row>
@@ -34441,7 +34441,7 @@
         <v>5000</v>
       </c>
       <c r="H257" s="7">
-        <f>G257*F257</f>
+        <f t="shared" si="3"/>
         <v>460000</v>
       </c>
     </row>
@@ -34468,7 +34468,7 @@
         <v>500</v>
       </c>
       <c r="H258" s="7">
-        <f>G258*F258</f>
+        <f t="shared" ref="H258:H321" si="4">G258*F258</f>
         <v>38500</v>
       </c>
     </row>
@@ -34495,7 +34495,7 @@
         <v>1500</v>
       </c>
       <c r="H259" s="7">
-        <f>G259*F259</f>
+        <f t="shared" si="4"/>
         <v>133500</v>
       </c>
     </row>
@@ -34522,7 +34522,7 @@
         <v>1000</v>
       </c>
       <c r="H260" s="7">
-        <f>G260*F260</f>
+        <f t="shared" si="4"/>
         <v>77000</v>
       </c>
     </row>
